--- a/data/trans_dic/P16A02-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A02-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P16A02-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A02-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,37%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,28%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,31%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,17%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,57%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,56%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,03%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,19%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,88%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,78%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,02%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>5,55; 17,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,57</t>
+          <t>9,29; 22,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>13,59; 28,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>19,35; 36,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>17,76; 33,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>28,7; 48,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>29,96; 48,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>34,05; 47,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>13,01; 22,65</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,87</t>
+          <t>20,07; 32,32</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>24,53; 37,05</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>30,13; 40,82</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,83%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,74%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,62%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,35%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,47%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,33%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,71%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,27%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,14%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,04%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,89%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>10,49; 15,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>14,76; 21,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>15,71; 22,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>23,78; 31,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>16,45; 22,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>28,48; 36,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>27,49; 34,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>36,46; 43,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>14,23; 18,65</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>22,8; 27,91</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>22,43; 27,58</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>31,32; 36,37</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,33%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,06%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,75%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,77%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,97%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,59%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,56%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,82%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,66%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,36%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,2%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,88%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>11,18; 15,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>16,78; 21,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>17,05; 22,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>17,14; 23,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>19,38; 25,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>28,58; 34,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>25,73; 31,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>35,97; 41,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>16,02; 19,48</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>23,54; 27,19</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>22,19; 26,21</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>27,12; 32,04</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,27%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,45%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,86%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,03%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,93%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,36%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,33%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,13%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,21%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,72%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,19%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>9,86; 14,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>13,71; 19,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>12,51; 17,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>19,7; 26,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>22,62; 29,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>28,43; 35,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>25,3; 31,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>36,27; 64,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>17,13; 21,44</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>22,03; 26,69</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>19,34; 23,69</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>29,54; 48,42</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,57%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,16%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,05%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,57%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,76%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,73%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,66%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,26%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,91%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,93%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,22%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,09%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>14,43; 18,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>15,58; 21,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>18,54; 23,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>22,08; 27,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>23,88; 29,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>33,65; 39,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>31,6; 37,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>37,31; 43,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>20,08; 23,77</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>25,96; 30,12</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>26,11; 30,35</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>31,04; 35,27</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,92%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,87%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,87%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,65%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,87%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,48%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,1%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,96%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,97%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,82%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,12%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,81%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>12,79; 15,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>16,42; 19,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>17,53; 20,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>21,95; 25,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>22,27; 25,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>31,8; 35,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>29,64; 32,77</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>38,59; 46,86</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>17,95; 19,93</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>24,74; 26,97</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>24,12; 26,16</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>31,23; 36,44</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A02-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A02-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,37%</t>
+          <t>12,73%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>17,29%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>20,28%</t>
+          <t>19,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>27,31%</t>
+          <t>27,33%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>24,17%</t>
+          <t>20,14%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>37,57%</t>
+          <t>33,29%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>39,56%</t>
+          <t>32,72%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>41,03%</t>
+          <t>40,09%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>17,19%</t>
+          <t>16,42%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>25,88%</t>
+          <t>25,26%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>29,78%</t>
+          <t>25,85%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>35,02%</t>
+          <t>33,91%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,55; 17,06</t>
+          <t>10,41; 15,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,29; 22,12</t>
+          <t>14,62; 20,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,59; 28,62</t>
+          <t>16,18; 22,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,35; 36,91</t>
+          <t>23,46; 31,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,76; 33,15</t>
+          <t>17,5; 23,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>28,7; 48,49</t>
+          <t>29,51; 36,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>29,96; 48,45</t>
+          <t>29,21; 36,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>34,05; 47,89</t>
+          <t>37,26; 42,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,01; 22,65</t>
+          <t>14,61; 18,52</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20,07; 32,32</t>
+          <t>22,97; 27,79</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>24,53; 37,05</t>
+          <t>23,48; 28,33</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>30,13; 40,82</t>
+          <t>31,79; 36,71</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,2%</t>
+          <t>13,33%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17,83%</t>
+          <t>19,06%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>19,75%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>27,62%</t>
+          <t>17,39%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>19,35%</t>
+          <t>21,97%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>32,47%</t>
+          <t>31,59%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>31,33%</t>
+          <t>28,56%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>39,71%</t>
+          <t>39,34%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>17,66%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>25,14%</t>
+          <t>25,36%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>25,04%</t>
+          <t>24,2%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>33,89%</t>
+          <t>27,17%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,49; 15,98</t>
+          <t>11,18; 15,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,76; 21,1</t>
+          <t>16,78; 21,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,71; 22,61</t>
+          <t>17,05; 22,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>23,78; 31,54</t>
+          <t>9,31; 22,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,45; 22,79</t>
+          <t>19,38; 25,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,48; 36,41</t>
+          <t>28,58; 34,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>27,49; 34,96</t>
+          <t>25,73; 31,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>36,46; 43,05</t>
+          <t>36,49; 41,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,23; 18,65</t>
+          <t>16,02; 19,48</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>22,8; 27,91</t>
+          <t>23,54; 27,19</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>22,43; 27,58</t>
+          <t>22,19; 26,21</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>31,32; 36,37</t>
+          <t>18,93; 31,28</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,33%</t>
+          <t>12,27%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,06%</t>
+          <t>16,45%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,75%</t>
+          <t>14,86%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>20,77%</t>
+          <t>23,01%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>21,97%</t>
+          <t>25,93%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>31,59%</t>
+          <t>31,77%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>28,56%</t>
+          <t>28,36%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>38,82%</t>
+          <t>50,14%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>17,66%</t>
+          <t>19,13%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>25,36%</t>
+          <t>24,21%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>24,2%</t>
+          <t>21,72%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>29,88%</t>
+          <t>38,47%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,18; 15,7</t>
+          <t>9,86; 14,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,78; 21,93</t>
+          <t>13,71; 19,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,05; 22,19</t>
+          <t>12,51; 17,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,14; 23,76</t>
+          <t>19,56; 26,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,38; 25,26</t>
+          <t>22,62; 29,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>28,58; 34,71</t>
+          <t>28,43; 35,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>25,73; 31,55</t>
+          <t>25,3; 31,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>35,97; 41,32</t>
+          <t>34,71; 73,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,02; 19,48</t>
+          <t>17,13; 21,44</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>23,54; 27,19</t>
+          <t>22,03; 26,69</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>22,19; 26,21</t>
+          <t>19,34; 23,69</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>27,12; 32,04</t>
+          <t>28,83; 58,86</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>16,57%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,45%</t>
+          <t>18,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>21,05%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23,03%</t>
+          <t>25,2%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,93%</t>
+          <t>26,76%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>31,77%</t>
+          <t>36,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>28,36%</t>
+          <t>34,66%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>45,33%</t>
+          <t>38,35%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>19,13%</t>
+          <t>21,91%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>24,21%</t>
+          <t>27,93%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>21,72%</t>
+          <t>28,22%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>35,19%</t>
+          <t>32,31%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,86; 14,94</t>
+          <t>14,43; 18,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,71; 19,32</t>
+          <t>15,58; 21,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,51; 17,53</t>
+          <t>18,54; 23,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,7; 26,57</t>
+          <t>22,51; 28,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,62; 29,3</t>
+          <t>23,88; 29,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,43; 35,27</t>
+          <t>33,65; 39,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,3; 31,48</t>
+          <t>31,6; 37,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>36,27; 64,04</t>
+          <t>29,17; 41,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,13; 21,44</t>
+          <t>20,08; 23,77</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>22,03; 26,69</t>
+          <t>25,96; 30,12</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>19,34; 23,69</t>
+          <t>26,11; 30,35</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>29,54; 48,42</t>
+          <t>28,67; 34,6</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>16,57%</t>
+          <t>13,92%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>18,16%</t>
+          <t>17,87%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>21,05%</t>
+          <t>18,87%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>24,57%</t>
+          <t>22,45%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>26,76%</t>
+          <t>23,87%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>36,73%</t>
+          <t>33,48%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>34,66%</t>
+          <t>31,1%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>40,26%</t>
+          <t>41,94%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>21,91%</t>
+          <t>18,97%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>27,93%</t>
+          <t>25,82%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>28,22%</t>
+          <t>25,12%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>33,09%</t>
+          <t>32,47%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,43; 18,96</t>
+          <t>12,79; 15,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,58; 21,03</t>
+          <t>16,42; 19,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18,54; 23,91</t>
+          <t>17,53; 20,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>22,08; 27,39</t>
+          <t>17,97; 24,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>23,88; 29,51</t>
+          <t>22,27; 25,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>33,65; 39,79</t>
+          <t>31,8; 35,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>31,6; 37,63</t>
+          <t>29,64; 32,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>37,31; 43,04</t>
+          <t>37,58; 52,28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>20,08; 23,77</t>
+          <t>17,95; 19,93</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>25,96; 30,12</t>
+          <t>24,74; 26,97</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>26,11; 30,35</t>
+          <t>24,12; 26,16</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>31,04; 35,27</t>
+          <t>29,28; 39,3</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>13,92%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>17,87%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>18,87%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>23,65%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>23,87%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>33,48%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>31,1%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>40,96%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>18,97%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>25,82%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>25,12%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>32,81%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>12,79; 15,17</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>16,42; 19,32</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>17,53; 20,27</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>21,95; 25,5</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>22,27; 25,25</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>31,8; 35,11</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>29,64; 32,77</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>38,59; 46,86</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>17,95; 19,93</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>24,74; 26,97</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>24,12; 26,16</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>31,23; 36,44</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P16A02-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A02-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,41; 15,62</t>
+          <t>10,53; 15,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,62; 20,34</t>
+          <t>14,8; 20,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,18; 22,35</t>
+          <t>16,2; 22,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,46; 31,05</t>
+          <t>23,5; 31,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,5; 23,39</t>
+          <t>17,36; 23,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>29,51; 36,86</t>
+          <t>29,65; 36,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>29,21; 36,72</t>
+          <t>29,08; 36,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>37,26; 42,88</t>
+          <t>37,35; 42,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,61; 18,52</t>
+          <t>14,61; 18,5</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>22,97; 27,79</t>
+          <t>23,01; 27,77</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>23,48; 28,33</t>
+          <t>23,52; 28,34</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>31,79; 36,71</t>
+          <t>31,85; 36,67</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,18; 15,7</t>
+          <t>11,03; 15,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,78; 21,93</t>
+          <t>16,5; 21,7</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,05; 22,19</t>
+          <t>17,3; 22,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,31; 22,83</t>
+          <t>9,42; 22,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,38; 25,26</t>
+          <t>19,24; 24,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,58; 34,71</t>
+          <t>28,79; 34,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,73; 31,55</t>
+          <t>25,78; 31,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>36,49; 41,76</t>
+          <t>36,7; 41,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,02; 19,48</t>
+          <t>15,98; 19,4</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>23,54; 27,19</t>
+          <t>23,31; 27,41</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>22,19; 26,21</t>
+          <t>22,14; 26,18</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,93; 31,28</t>
+          <t>18,29; 31,25</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,86; 14,94</t>
+          <t>10,05; 15,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,71; 19,32</t>
+          <t>13,69; 19,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,51; 17,53</t>
+          <t>12,18; 17,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,56; 26,58</t>
+          <t>19,64; 26,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,62; 29,3</t>
+          <t>22,63; 29,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>28,43; 35,27</t>
+          <t>28,26; 35,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>25,3; 31,48</t>
+          <t>25,21; 31,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>34,71; 73,93</t>
+          <t>34,72; 72,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,13; 21,44</t>
+          <t>17,0; 21,23</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>22,03; 26,69</t>
+          <t>21,94; 26,42</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>19,34; 23,69</t>
+          <t>19,74; 23,94</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>28,83; 58,86</t>
+          <t>28,78; 59,33</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,43; 18,96</t>
+          <t>14,52; 19,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,58; 21,03</t>
+          <t>15,74; 20,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,54; 23,91</t>
+          <t>18,38; 23,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,51; 28,3</t>
+          <t>22,33; 28,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,88; 29,51</t>
+          <t>24,09; 29,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,65; 39,79</t>
+          <t>33,72; 39,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>31,6; 37,63</t>
+          <t>31,96; 38,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,17; 41,95</t>
+          <t>29,68; 41,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,08; 23,77</t>
+          <t>20,06; 23,6</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>25,96; 30,12</t>
+          <t>25,92; 30,13</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>26,11; 30,35</t>
+          <t>26,14; 30,31</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>28,67; 34,6</t>
+          <t>28,54; 34,65</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,79; 15,17</t>
+          <t>12,8; 15,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,42; 19,32</t>
+          <t>16,55; 19,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,53; 20,27</t>
+          <t>17,67; 20,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,97; 24,95</t>
+          <t>17,4; 24,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>22,27; 25,25</t>
+          <t>22,52; 25,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>31,8; 35,11</t>
+          <t>31,8; 35,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>29,64; 32,77</t>
+          <t>29,45; 32,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>37,58; 52,28</t>
+          <t>37,91; 53,16</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,95; 19,93</t>
+          <t>18,03; 19,95</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>24,74; 26,97</t>
+          <t>24,79; 26,98</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>24,12; 26,16</t>
+          <t>24,02; 26,25</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>29,28; 39,3</t>
+          <t>29,14; 39,03</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicinas para el dolor/bajar la fiebre en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>88237</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>121145</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>128241</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>173659</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>138631</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>231690</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>220153</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>270921</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>226868</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>352835</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>348394</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>444581</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>72969; 107125</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>103711; 143465</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>109342; 149541</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>149312; 197127</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>119523; 158317</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>206355; 257344</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>195638; 244882</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>252380; 289921</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>201796; 255593</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>321396; 387895</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>316909; 381918</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>417579; 480832</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>883</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>128164</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>193995</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>201957</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>207499</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>212733</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>325047</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>297842</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>376901</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>340896</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>519042</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>499799</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>584400</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>106099; 150230</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>167997; 220846</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>176894; 231388</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>112368; 274155</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>186327; 238031</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>296273; 357587</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>268869; 329748</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>351599; 401713</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>308358; 374385</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>477040; 561102</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>457316; 540675</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>393374; 672074</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>83274</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>124417</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>112890</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>162113</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>177351</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>246627</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>222612</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>467984</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>260625</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>371044</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>335502</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>630097</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>68165; 103809</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>103579; 147746</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>92493; 132463</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>138391; 187824</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>154732; 202347</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>219407; 275248</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>197883; 249685</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>324103; 681141</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>231658; 289182</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>336332; 404928</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>304964; 369734</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>471410; 971931</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>948</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>156120</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>171825</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>197357</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>233522</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>277902</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>385607</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>361749</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>418576</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>434021</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>557432</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>559106</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>652098</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>136809; 179303</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>148910; 196320</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>172285; 222366</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>207007; 262776</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>250231; 308547</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>354010; 418361</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>333548; 396643</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>323921; 457851</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>397427; 467391</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>517194; 601306</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>517976; 600520</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>576072; 699230</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>568</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>783</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1099</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1013</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2312</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1247</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1667</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1625</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>3196</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>455794</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>611383</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>640445</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>776794</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>806617</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1188971</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1102356</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1534383</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1262411</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1800354</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1742802</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>2311177</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>419332; 499643</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>566113; 658389</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>599790; 685922</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>602104; 855818</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>760960; 859025</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1129279; 1248204</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1043727; 1156043</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1387080; 1944977</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1199751; 1327515</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1728497; 1880953</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1666980; 1821371</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>2074461; 2778298</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>